--- a/excel/登録用アカウント.xlsx
+++ b/excel/登録用アカウント.xlsx
@@ -268,10 +268,6 @@
     <t>沖縄県</t>
   </si>
   <si>
-    <t>mebu356@fuwamofu.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>mebu356</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -281,6 +277,10 @@
   </si>
   <si>
     <t>かき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mebu356@fuwamofu.com</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -722,7 +722,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -773,13 +773,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
